--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forla\Desktop\Progetto compatibilità\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC4FE7-C706-49B0-B2FC-268E6F690C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E72713-B0F1-48E4-B3FB-BA71E51A3BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="5475" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>Tipo</t>
+  </si>
+  <si>
+    <t>500L</t>
+  </si>
+  <si>
+    <t>500 L</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>gvr</t>
+  </si>
+  <si>
+    <t>grer</t>
   </si>
 </sst>
 </file>
@@ -411,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -427,16 +442,19 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -444,33 +462,36 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>500</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3423</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1990</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>24323</v>
       </c>
@@ -478,64 +499,137 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>155</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forla\Desktop\Progetto compatibilità\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forla\Desktop\Progetto compatibilità  scarico excel geotab - Copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E72713-B0F1-48E4-B3FB-BA71E51A3BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086782E0-760F-4F60-B9AB-CC237DA878C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>grer</t>
+  </si>
+  <si>
+    <t>fiat</t>
+  </si>
+  <si>
+    <t>doblo</t>
+  </si>
+  <si>
+    <t>doblò</t>
+  </si>
+  <si>
+    <t>adsf</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>1-series</t>
   </si>
 </sst>
 </file>
@@ -426,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +650,65 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
